--- a/source.xlsx
+++ b/source.xlsx
@@ -3,17 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9547744-6BB5-41F0-8813-9E59FC7A7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12B414F-CEF9-4965-835D-3F4F5A06660A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5244" yWindow="1356" windowWidth="17904" windowHeight="10248" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2784" yWindow="1512" windowWidth="17904" windowHeight="10248" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="paper" sheetId="11" r:id="rId1"/>
-    <sheet name="internet" sheetId="4" r:id="rId2"/>
+    <sheet name="paper" sheetId="11" state="hidden" r:id="rId1"/>
+    <sheet name="internet" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="papPaste" sheetId="10" r:id="rId3"/>
     <sheet name="intPaste" sheetId="9" r:id="rId4"/>
-    <sheet name="save" sheetId="13" r:id="rId5"/>
-    <sheet name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="settings" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>보도시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +53,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>뉴스4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>뉴스2내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +81,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>뉴스4내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스4링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스4제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>뉴스1링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +112,16 @@
     <t>신문2</t>
   </si>
   <si>
+    <t>신문3</t>
+  </si>
+  <si>
+    <t>신문4</t>
+  </si>
+  <si>
+    <t>신문3제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>신문1내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +129,12 @@
     <t>신문2내용</t>
   </si>
   <si>
+    <t>신문3내용</t>
+  </si>
+  <si>
+    <t>신문4내용</t>
+  </si>
+  <si>
     <t>신문1제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +148,18 @@
   </si>
   <si>
     <t>신문2링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문3링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문4제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문4링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,16 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +494,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -467,7 +507,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="str">
+      <c r="A1" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A1)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A1)*2-2,0))</f>
         <v>2022.09.30.</v>
       </c>
@@ -513,45 +553,45 @@
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A3)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A3)*2-2,0))</f>
-        <v/>
+        <v>2022.09.30.</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A3)*2-2,1)=0,"",OFFSET(papPaste!$A$1,ROW(A3)*2-2,1))</f>
-        <v/>
+        <v>신문3</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B3)*2-2,2)=0,"",OFFSET(papPaste!$A$1,ROW(B3)*2-2,2))</f>
-        <v/>
+        <v>신문3제목</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B3)*2-2,3)=0,"",OFFSET(papPaste!$A$1,ROW(B3)*2-2,3))</f>
-        <v/>
+        <v>신문3내용</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B3)*2-1,2)=0,"",OFFSET(papPaste!$A$1,ROW(B3)*2-1,2))</f>
-        <v/>
+        <v>신문3링크</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A4)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A4)*2-2,0))</f>
-        <v/>
+        <v>2022.09.30.</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A4)*2-2,1)=0,"",OFFSET(papPaste!$A$1,ROW(A4)*2-2,1))</f>
-        <v/>
+        <v>신문4</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B4)*2-2,2)=0,"",OFFSET(papPaste!$A$1,ROW(B4)*2-2,2))</f>
-        <v/>
+        <v>신문4제목</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B4)*2-2,3)=0,"",OFFSET(papPaste!$A$1,ROW(B4)*2-2,3))</f>
-        <v/>
+        <v>신문4내용</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B4)*2-1,2)=0,"",OFFSET(papPaste!$A$1,ROW(B4)*2-1,2))</f>
-        <v/>
+        <v>신문4링크</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -573,7 +613,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -654,23 +694,23 @@
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A4)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A4)*2-2,0))</f>
-        <v/>
+        <v>2022.09.30.</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A4)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A4)*2-2,1))</f>
-        <v/>
+        <v>뉴스4</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B4)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B4)*2-2,2))</f>
-        <v/>
+        <v>뉴스4제목</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B4)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B4)*2-2,3))</f>
-        <v/>
+        <v>뉴스4내용</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B4)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B4)*2-1,2))</f>
-        <v/>
+        <v>뉴스4링크</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -688,10 +728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52CDCBD-B26B-4348-BCAA-4FD483C29C39}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -701,20 +741,20 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -723,31 +763,81 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -756,10 +846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C70C31C-FF2C-4CDF-A663-776B3022753F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -772,17 +862,17 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -794,17 +884,17 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -816,31 +906,56 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -848,130 +963,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4B8278-0B08-4210-ACF7-5AB442837234}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.59765625" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A1)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A1)*2-2,0))</f>
-        <v>2022.09.30.</v>
-      </c>
-      <c r="B1" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A1)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A1)*2-2,1))</f>
-        <v>뉴스1</v>
-      </c>
-      <c r="C1" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B1)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B1)*2-2,2))</f>
-        <v>뉴스1제목</v>
-      </c>
-      <c r="D1" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B1)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B1)*2-2,3))</f>
-        <v>뉴스1내용</v>
-      </c>
-      <c r="E1" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B1)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B1)*2-1,2))</f>
-        <v>뉴스1링크</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A2)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A2)*2-2,0))</f>
-        <v>2022.09.30.</v>
-      </c>
-      <c r="B2" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A2)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A2)*2-2,1))</f>
-        <v>뉴스2</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B2)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B2)*2-2,2))</f>
-        <v>뉴스2제목</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B2)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B2)*2-2,3))</f>
-        <v>뉴스2내용</v>
-      </c>
-      <c r="E2" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B2)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B2)*2-1,2))</f>
-        <v>뉴스2링크</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A3)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A3)*2-2,0))</f>
-        <v>2022.09.30.</v>
-      </c>
-      <c r="B3" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A3)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A3)*2-2,1))</f>
-        <v>뉴스3</v>
-      </c>
-      <c r="C3" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B3)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B3)*2-2,2))</f>
-        <v>뉴스3제목</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B3)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B3)*2-2,3))</f>
-        <v>뉴스3내용</v>
-      </c>
-      <c r="E3" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B3)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B3)*2-1,2))</f>
-        <v>뉴스3링크</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A4)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A4)*2-2,0))</f>
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A4)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A4)*2-2,1))</f>
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B4)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B4)*2-2,2))</f>
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B4)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B4)*2-2,3))</f>
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B4)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B4)*2-1,2))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7535E872-1599-4301-90A6-57CBE8EC0659}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/source.xlsx
+++ b/source.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12B414F-CEF9-4965-835D-3F4F5A06660A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77DEDE-2C89-4EAF-94C2-0E423F83E04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="1512" windowWidth="17904" windowHeight="10248" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="paper" sheetId="11" state="hidden" r:id="rId1"/>
-    <sheet name="internet" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="paper" sheetId="11" r:id="rId1"/>
+    <sheet name="internet" sheetId="4" r:id="rId2"/>
     <sheet name="papPaste" sheetId="10" r:id="rId3"/>
     <sheet name="intPaste" sheetId="9" r:id="rId4"/>
     <sheet name="settings" sheetId="3" state="hidden" r:id="rId5"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>보도시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -594,12 +594,138 @@
         <v>신문4링크</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A5)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A5)*2-2,0))</f>
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A5)*2-2,1)=0,"",OFFSET(papPaste!$A$1,ROW(A5)*2-2,1))</f>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B5)*2-2,2)=0,"",OFFSET(papPaste!$A$1,ROW(B5)*2-2,2))</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B5)*2-2,3)=0,"",OFFSET(papPaste!$A$1,ROW(B5)*2-2,3))</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B5)*2-1,2)=0,"",OFFSET(papPaste!$A$1,ROW(B5)*2-1,2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A6)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A6)*2-2,0))</f>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A6)*2-2,1)=0,"",OFFSET(papPaste!$A$1,ROW(A6)*2-2,1))</f>
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B6)*2-2,2)=0,"",OFFSET(papPaste!$A$1,ROW(B6)*2-2,2))</f>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B6)*2-2,3)=0,"",OFFSET(papPaste!$A$1,ROW(B6)*2-2,3))</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B6)*2-1,2)=0,"",OFFSET(papPaste!$A$1,ROW(B6)*2-1,2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A7)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A7)*2-2,0))</f>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A7)*2-2,1)=0,"",OFFSET(papPaste!$A$1,ROW(A7)*2-2,1))</f>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B7)*2-2,2)=0,"",OFFSET(papPaste!$A$1,ROW(B7)*2-2,2))</f>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B7)*2-2,3)=0,"",OFFSET(papPaste!$A$1,ROW(B7)*2-2,3))</f>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B7)*2-1,2)=0,"",OFFSET(papPaste!$A$1,ROW(B7)*2-1,2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A8)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A8)*2-2,0))</f>
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A8)*2-2,1)=0,"",OFFSET(papPaste!$A$1,ROW(A8)*2-2,1))</f>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B8)*2-2,2)=0,"",OFFSET(papPaste!$A$1,ROW(B8)*2-2,2))</f>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B8)*2-2,3)=0,"",OFFSET(papPaste!$A$1,ROW(B8)*2-2,3))</f>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B8)*2-1,2)=0,"",OFFSET(papPaste!$A$1,ROW(B8)*2-1,2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A9)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A9)*2-2,0))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A9)*2-2,1)=0,"",OFFSET(papPaste!$A$1,ROW(A9)*2-2,1))</f>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B9)*2-2,2)=0,"",OFFSET(papPaste!$A$1,ROW(B9)*2-2,2))</f>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B9)*2-2,3)=0,"",OFFSET(papPaste!$A$1,ROW(B9)*2-2,3))</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B9)*2-1,2)=0,"",OFFSET(papPaste!$A$1,ROW(B9)*2-1,2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A10)*2-2,0)=0,"",OFFSET(papPaste!$A$1,ROW(A10)*2-2,0))</f>
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(A10)*2-2,1)=0,"",OFFSET(papPaste!$A$1,ROW(A10)*2-2,1))</f>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B10)*2-2,2)=0,"",OFFSET(papPaste!$A$1,ROW(B10)*2-2,2))</f>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B10)*2-2,3)=0,"",OFFSET(papPaste!$A$1,ROW(B10)*2-2,3))</f>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f ca="1">IF(OFFSET(papPaste!$A$1,ROW(B10)*2-1,2)=0,"",OFFSET(papPaste!$A$1,ROW(B10)*2-1,2))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -613,7 +739,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E5" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -713,12 +839,138 @@
         <v>뉴스4링크</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A5)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A5)*2-2,0))</f>
+        <v>2022.09.30.</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A5)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A5)*2-2,1))</f>
+        <v>뉴스4</v>
+      </c>
+      <c r="C5" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B5)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B5)*2-2,2))</f>
+        <v>뉴스4제목</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B5)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B5)*2-2,3))</f>
+        <v>뉴스4내용</v>
+      </c>
+      <c r="E5" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B5)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B5)*2-1,2))</f>
+        <v>뉴스4링크</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A6)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A6)*2-2,0))</f>
+        <v>2022.09.30.</v>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A6)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A6)*2-2,1))</f>
+        <v>뉴스4</v>
+      </c>
+      <c r="C6" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B6)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B6)*2-2,2))</f>
+        <v>뉴스4제목</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B6)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B6)*2-2,3))</f>
+        <v>뉴스4내용</v>
+      </c>
+      <c r="E6" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B6)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B6)*2-1,2))</f>
+        <v>뉴스4링크</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A7)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A7)*2-2,0))</f>
+        <v>2022.09.30.</v>
+      </c>
+      <c r="B7" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A7)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A7)*2-2,1))</f>
+        <v>뉴스4</v>
+      </c>
+      <c r="C7" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B7)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B7)*2-2,2))</f>
+        <v>뉴스4제목</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B7)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B7)*2-2,3))</f>
+        <v>뉴스4내용</v>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B7)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B7)*2-1,2))</f>
+        <v>뉴스4링크</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A8)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A8)*2-2,0))</f>
+        <v>2022.09.30.</v>
+      </c>
+      <c r="B8" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A8)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A8)*2-2,1))</f>
+        <v>뉴스4</v>
+      </c>
+      <c r="C8" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B8)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B8)*2-2,2))</f>
+        <v>뉴스4제목</v>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B8)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B8)*2-2,3))</f>
+        <v>뉴스4내용</v>
+      </c>
+      <c r="E8" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B8)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B8)*2-1,2))</f>
+        <v>뉴스4링크</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A9)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A9)*2-2,0))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A9)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A9)*2-2,1))</f>
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B9)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B9)*2-2,2))</f>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B9)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B9)*2-2,3))</f>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B9)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B9)*2-1,2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A10)*2-2,0)=0,"",OFFSET(intPaste!$A$1,ROW(A10)*2-2,0))</f>
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(A10)*2-2,1)=0,"",OFFSET(intPaste!$A$1,ROW(A10)*2-2,1))</f>
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B10)*2-2,2)=0,"",OFFSET(intPaste!$A$1,ROW(B10)*2-2,2))</f>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B10)*2-2,3)=0,"",OFFSET(intPaste!$A$1,ROW(B10)*2-2,3))</f>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f ca="1">IF(OFFSET(intPaste!$A$1,ROW(B10)*2-1,2)=0,"",OFFSET(intPaste!$A$1,ROW(B10)*2-1,2))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -826,18 +1078,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -846,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C70C31C-FF2C-4CDF-A663-776B3022753F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -942,20 +1194,120 @@
       </c>
       <c r="D8" s="2"/>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
